--- a/Enigma_simulator.xlsx
+++ b/Enigma_simulator.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="8256"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil4" sheetId="8" r:id="rId1"/>
-    <sheet name="Enigma" sheetId="5" r:id="rId2"/>
+    <sheet name="Enigma" sheetId="8" r:id="rId1"/>
+    <sheet name="Engine" sheetId="5" r:id="rId2"/>
     <sheet name="Rotor" sheetId="6" r:id="rId3"/>
     <sheet name="Reflector" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="63">
   <si>
     <t>a</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">text : </t>
-  </si>
-  <si>
-    <t>hello world</t>
   </si>
   <si>
     <t>Input :</t>
@@ -1509,7 +1506,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1592,7 @@
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1604,13 +1601,13 @@
         <v>60</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1618,7 +1615,10 @@
       <c r="B20" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="96" t="str">
+        <f>Engine!W10</f>
+        <v>f</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1660,7 +1660,7 @@
   <dimension ref="A1:AE88"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,8 +1731,9 @@
       <c r="Q1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
-        <v>39</v>
+      <c r="R1" s="55" t="str">
+        <f>Enigma!C4</f>
+        <v>I</v>
       </c>
       <c r="S1" s="53">
         <f>MATCH(R1,Rotor!$1:$1,0)</f>
@@ -1800,6 +1801,7 @@
         <v>28</v>
       </c>
       <c r="V2" s="49">
+        <f>Enigma!D4</f>
         <v>1</v>
       </c>
       <c r="W2" s="50" t="str">
@@ -1874,6 +1876,7 @@
         <v>31</v>
       </c>
       <c r="V3" s="48">
+        <f>Enigma!E4</f>
         <v>1</v>
       </c>
       <c r="W3" s="10" t="str">
@@ -2082,21 +2085,22 @@
       <c r="V6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="40" t="s">
-        <v>0</v>
+      <c r="W6" s="40" t="str">
+        <f>Enigma!C15</f>
+        <v>b</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="30" t="str">
         <f>INDEX($L$2:$L$27,MATCH(W6,M2:M27,0))</f>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="Z6" s="30" t="str">
         <f>INDEX($R$2:$R$27,MATCH(Y6,$Q$2:$Q$27,0))</f>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="AA6" s="31" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA7,$B$2:$B$27,0))</f>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="47"/>
@@ -2161,20 +2165,20 @@
       </c>
       <c r="W7" s="35" t="str">
         <f>AA6</f>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Y6,$D$2:$D$27,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Z6,$D$2:$D$27,0))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="37">
         <f>MOD(-$V$3+$V$2-$V$4+Z7-1,26)+1</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="68"/>
@@ -2303,21 +2307,22 @@
       <c r="V9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W9" s="34" t="s">
-        <v>0</v>
+      <c r="W9" s="34" t="str">
+        <f>W40</f>
+        <v>g</v>
       </c>
       <c r="X9" s="69"/>
       <c r="Y9" s="34" t="str">
         <f>INDEX($L$2:$L$27,MATCH(W9,M2:M27,0))</f>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="Z9" s="34" t="str">
         <f>INDEX($Q$2:$Q$27,MATCH(Y9,$R$2:$R$27,0))</f>
-        <v>u</v>
+        <v>f</v>
       </c>
       <c r="AA9" s="38" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA10,$B$2:$B$27,0))</f>
-        <v>u</v>
+        <v>f</v>
       </c>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47"/>
@@ -2382,20 +2387,20 @@
       </c>
       <c r="W10" s="41" t="str">
         <f>AA9</f>
-        <v>u</v>
+        <v>f</v>
       </c>
       <c r="X10" s="33"/>
       <c r="Y10" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Y9,$D$2:$D$27,0))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Z9,$D$2:$D$27,0))</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="24">
         <f>MOD(-$V$3+$V$2+$V$4+Z10-1,26)+1</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47"/>
@@ -3413,8 +3418,9 @@
       <c r="Q31" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="R31" s="55" t="s">
-        <v>40</v>
+      <c r="R31" s="55" t="str">
+        <f>Enigma!C5</f>
+        <v>II</v>
       </c>
       <c r="S31" s="53">
         <f>MATCH(R31,Rotor!$1:$1,0)</f>
@@ -3467,6 +3473,7 @@
         <v>28</v>
       </c>
       <c r="V32" s="49">
+        <f>Enigma!D5</f>
         <v>1</v>
       </c>
       <c r="W32" s="50" t="str">
@@ -3520,6 +3527,7 @@
         <v>31</v>
       </c>
       <c r="V33" s="48">
+        <f>Enigma!E5</f>
         <v>1</v>
       </c>
       <c r="W33" s="10" t="str">
@@ -3676,20 +3684,20 @@
       </c>
       <c r="W36" s="30" t="str">
         <f>W7</f>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="X36" s="30"/>
       <c r="Y36" s="30" t="str">
         <f>INDEX($L$32:$L$57,MATCH(W36,M32:M57,0))</f>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="Z36" s="30" t="str">
         <f>INDEX($R$32:$R$57,MATCH(Y36,$Q$32:$Q$57,0))</f>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AA36" s="31" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA37,$B$2:$B$27,0))</f>
-        <v>s</v>
+        <v>L</v>
       </c>
       <c r="AB36" s="9"/>
     </row>
@@ -3742,20 +3750,20 @@
       </c>
       <c r="W37" s="35" t="str">
         <f>AA36</f>
-        <v>s</v>
+        <v>L</v>
       </c>
       <c r="X37" s="35"/>
       <c r="Y37" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Y36,$D$2:$D$27,0))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Z37" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Z36,$D$2:$D$27,0))</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA37" s="37">
         <f>MOD(-$V$33+$V$32-$V$34+Z37-1,26)+1</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="68"/>
@@ -3863,20 +3871,20 @@
       </c>
       <c r="W39" s="34" t="str">
         <f>W70</f>
-        <v>f</v>
+        <v>r</v>
       </c>
       <c r="X39" s="69"/>
       <c r="Y39" s="34" t="str">
         <f>INDEX($L$32:$L$57,MATCH(W39,M32:M57,0))</f>
-        <v>f</v>
+        <v>r</v>
       </c>
       <c r="Z39" s="34" t="str">
         <f>INDEX($Q$32:$Q$57,MATCH(Y39,$R$32:$R$57,0))</f>
-        <v>w</v>
+        <v>g</v>
       </c>
       <c r="AA39" s="38" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA40,$B$2:$B$27,0))</f>
-        <v>w</v>
+        <v>g</v>
       </c>
     </row>
     <row r="40" spans="3:29" s="47" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3928,20 +3936,20 @@
       </c>
       <c r="W40" s="33" t="str">
         <f>AA39</f>
-        <v>w</v>
+        <v>g</v>
       </c>
       <c r="X40" s="33"/>
       <c r="Y40" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Y39,$D$2:$D$27,0))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z40" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Z39,$D$2:$D$27,0))</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AA40" s="24">
         <f>MOD(-$V$33+$V$32+$V$34+Z40-1,26)+1</f>
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="3:29" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4768,8 +4776,9 @@
       <c r="Q61" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="R61" s="55" t="s">
-        <v>42</v>
+      <c r="R61" s="55" t="str">
+        <f>Enigma!C6</f>
+        <v>III</v>
       </c>
       <c r="S61" s="53">
         <f>MATCH(R61,Rotor!$1:$1,0)</f>
@@ -4822,6 +4831,7 @@
         <v>31</v>
       </c>
       <c r="V62" s="49">
+        <f>Enigma!D6</f>
         <v>1</v>
       </c>
       <c r="W62" s="50" t="str">
@@ -4878,6 +4888,7 @@
         <v>28</v>
       </c>
       <c r="V63" s="48">
+        <f>Enigma!E6</f>
         <v>1</v>
       </c>
       <c r="W63" s="10" t="str">
@@ -5040,20 +5051,20 @@
       </c>
       <c r="W66" s="30" t="str">
         <f>W37</f>
-        <v>s</v>
+        <v>L</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="30" t="str">
         <f>INDEX($L$62:$L$87,MATCH(W66,M62:M87,0))</f>
-        <v>s</v>
+        <v>L</v>
       </c>
       <c r="Z66" s="30" t="str">
         <f>INDEX($R$62:$R$87,MATCH(Y66,$Q$62:$Q$87,0))</f>
-        <v>g</v>
+        <v>v</v>
       </c>
       <c r="AA66" s="31" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA67,$B$2:$B$27,0))</f>
-        <v>g</v>
+        <v>v</v>
       </c>
       <c r="AB66" s="9"/>
     </row>
@@ -5106,20 +5117,20 @@
       </c>
       <c r="W67" s="33" t="str">
         <f>AA66</f>
-        <v>g</v>
+        <v>v</v>
       </c>
       <c r="X67" s="24"/>
       <c r="Y67" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Y66,$D$2:$D$27,0))</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Z67" s="35">
         <f>INDEX($B$2:$B$27,MATCH(Z66,$D$2:$D$27,0))</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AA67" s="37">
         <f>MOD(-$V$62+$V$63-$V$64+Z67-1,26)+1</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="68"/>
@@ -5227,20 +5238,20 @@
       </c>
       <c r="W69" s="30" t="str">
         <f>INDEX(Reflector!$A$2:$K$27,MATCH(W67,Reflector!$A$2:$A$27,0),W73)</f>
-        <v>L</v>
+        <v>w</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="34" t="str">
         <f>INDEX($L$62:$L$87,MATCH(W69,M62:M87,0))</f>
-        <v>L</v>
+        <v>w</v>
       </c>
       <c r="Z69" s="34" t="str">
         <f>INDEX($Q$62:$Q$87,MATCH(Y69,$R$62:$R$87,0))</f>
-        <v>f</v>
+        <v>r</v>
       </c>
       <c r="AA69" s="38" t="str">
         <f>INDEX($D$2:$D$27,MATCH(AA70,$B$2:$B$27,0))</f>
-        <v>f</v>
+        <v>r</v>
       </c>
     </row>
     <row r="70" spans="3:29" s="47" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5292,20 +5303,20 @@
       </c>
       <c r="W70" s="33" t="str">
         <f>AA69</f>
-        <v>f</v>
+        <v>r</v>
       </c>
       <c r="X70" s="24"/>
       <c r="Y70" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Y69,$D$2:$D$27,0))</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z70" s="33">
         <f>INDEX($B$2:$B$27,MATCH(Z69,$D$2:$D$27,0))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA70" s="24">
         <f>MOD(-$V$62+$V$63+$V$64+Z70-1,26)+1</f>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="3:29" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5446,8 +5457,9 @@
       <c r="U73" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="V73" s="77" t="s">
-        <v>43</v>
+      <c r="V73" s="77" t="str">
+        <f>Enigma!C8</f>
+        <v>B</v>
       </c>
       <c r="W73" s="53">
         <f>MATCH(V73,Reflector!$1:$1,0)</f>
